--- a/id.xlsx
+++ b/id.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kristine\Desktop\BUPT\SFC\SFCCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{852B2E28-225B-4ECD-AB0C-07E6C549AF81}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955E98C2-92F8-4A6E-AC46-6D6874FD1B34}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" activeTab="1" xr2:uid="{0C546FD5-5ED7-48C5-B1A2-C545672C5C30}"/>
+    <workbookView xWindow="8585" yWindow="1675" windowWidth="9245" windowHeight="9850" firstSheet="2" activeTab="4" xr2:uid="{0C546FD5-5ED7-48C5-B1A2-C545672C5C30}"/>
   </bookViews>
   <sheets>
     <sheet name="String.xml" sheetId="1" r:id="rId1"/>
     <sheet name="activity_main.xml" sheetId="3" r:id="rId2"/>
+    <sheet name="activity_mainpage.xml" sheetId="4" r:id="rId3"/>
+    <sheet name="fragment_function.xml" sheetId="5" r:id="rId4"/>
+    <sheet name="fragment_memberarea.xml" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="87">
   <si>
     <t>ID</t>
   </si>
@@ -64,12 +67,6 @@
     <t>注册按钮</t>
   </si>
   <si>
-    <t>形式：drawable_loginbuttonstyle</t>
-  </si>
-  <si>
-    <t>形式：drawable_registerbuttonstyle</t>
-  </si>
-  <si>
     <t>背景</t>
   </si>
   <si>
@@ -77,13 +74,229 @@
   </si>
   <si>
     <t>存于mipmap-hdpi</t>
+  </si>
+  <si>
+    <t>fragment_function</t>
+  </si>
+  <si>
+    <t>fragment_memberarea</t>
+  </si>
+  <si>
+    <t>container</t>
+  </si>
+  <si>
+    <t>nav_view</t>
+  </si>
+  <si>
+    <t>nav_host_fragment</t>
+  </si>
+  <si>
+    <t>此页非LinearLayout 勿改</t>
+  </si>
+  <si>
+    <t>选项框架</t>
+  </si>
+  <si>
+    <t>全页面框架</t>
+  </si>
+  <si>
+    <t>除最上框架</t>
+  </si>
+  <si>
+    <t>bottom_nav_menu</t>
+  </si>
+  <si>
+    <t>存于menu</t>
+  </si>
+  <si>
+    <t>选项名字以及图标</t>
+  </si>
+  <si>
+    <t>mobile_navigation</t>
+  </si>
+  <si>
+    <t>存于navigation</t>
+  </si>
+  <si>
+    <t>选项的分别页面内容</t>
+  </si>
+  <si>
+    <t>navigation_function</t>
+  </si>
+  <si>
+    <t>存于bottom_nav_menu</t>
+  </si>
+  <si>
+    <t>ic_home_black_24dp</t>
+  </si>
+  <si>
+    <t>存于drawable</t>
+  </si>
+  <si>
+    <t>小车使用选项名字</t>
+  </si>
+  <si>
+    <t>小车选项选项图标</t>
+  </si>
+  <si>
+    <t>navigation_memberarea</t>
+  </si>
+  <si>
+    <t>用户专区选项名字</t>
+  </si>
+  <si>
+    <t>用户专区选项图标</t>
+  </si>
+  <si>
+    <t>ic_dashboard_black_24dp</t>
+  </si>
+  <si>
+    <t>存于mobile_navigation</t>
+  </si>
+  <si>
+    <t>对接 指打开小车使用选项页面</t>
+  </si>
+  <si>
+    <t>对接 指打开用户专区选项页面</t>
+  </si>
+  <si>
+    <t>小车使用页面</t>
+  </si>
+  <si>
+    <t>用户专区页面</t>
+  </si>
+  <si>
+    <t>MemberareaFragment</t>
+  </si>
+  <si>
+    <t>FunctionFragment</t>
+  </si>
+  <si>
+    <t>存于ui.memberarea</t>
+  </si>
+  <si>
+    <t>存于ui.function</t>
+  </si>
+  <si>
+    <t>小车使用Java</t>
+  </si>
+  <si>
+    <t>用户专区Java</t>
+  </si>
+  <si>
+    <t>functionpagetitle</t>
+  </si>
+  <si>
+    <t>天线小车使用</t>
+  </si>
+  <si>
+    <t>scancodeuse</t>
+  </si>
+  <si>
+    <t>scancodewin</t>
+  </si>
+  <si>
+    <t>扫码使用小车</t>
+  </si>
+  <si>
+    <t>扫码赚取优惠</t>
+  </si>
+  <si>
+    <t>scancodeusebutton</t>
+  </si>
+  <si>
+    <t>scancodewinbutton</t>
+  </si>
+  <si>
+    <t>扫码使用小车按钮</t>
+  </si>
+  <si>
+    <t>扫码赚取优惠按钮</t>
+  </si>
+  <si>
+    <t>scan</t>
+  </si>
+  <si>
+    <t>扫码图标</t>
+  </si>
+  <si>
+    <t>welcomemember</t>
+  </si>
+  <si>
+    <t>你好，会员名</t>
+  </si>
+  <si>
+    <t>creditscore</t>
+  </si>
+  <si>
+    <t>剩余积分：积分</t>
+  </si>
+  <si>
+    <t>creditstore</t>
+  </si>
+  <si>
+    <t>积分商城按钮</t>
+  </si>
+  <si>
+    <t>creditstorebuttonstyle</t>
+  </si>
+  <si>
+    <t>积分商城</t>
+  </si>
+  <si>
+    <t>coupon</t>
+  </si>
+  <si>
+    <t>couponbuttonstyle</t>
+  </si>
+  <si>
+    <t>优惠券</t>
+  </si>
+  <si>
+    <t>优惠券按钮</t>
+  </si>
+  <si>
+    <t>historybuttonstyle</t>
+  </si>
+  <si>
+    <t>history</t>
+  </si>
+  <si>
+    <t>problembuttonstyle</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>customerservicebuttonstyle</t>
+  </si>
+  <si>
+    <t>customerservice</t>
+  </si>
+  <si>
+    <t>消费记录</t>
+  </si>
+  <si>
+    <t>反馈记录</t>
+  </si>
+  <si>
+    <t>客服中心</t>
+  </si>
+  <si>
+    <t>客服中心按钮</t>
+  </si>
+  <si>
+    <t>反馈记录按钮</t>
+  </si>
+  <si>
+    <t>消费记录按钮</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -91,6 +304,12 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="仿宋"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -113,8 +332,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -130,6 +350,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1108076</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>202030</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="圖片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4E773D4-861E-46B9-A14C-12B8C32FC924}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2809876" y="425450"/>
+          <a:ext cx="1060450" cy="182980"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -461,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F8402D-8370-4564-834E-49F96AF0C5A2}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView zoomScale="98" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
@@ -512,7 +781,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -523,21 +792,450 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08703E9E-A116-4A08-AB0A-66A90ADF5CFC}">
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7931463-D1E3-4D93-B071-0685D7402DAE}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="3" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA8B3B4F-83B6-455E-B785-B23C0EFA9913}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="3" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/id.xlsx
+++ b/id.xlsx
@@ -1,35 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kristine\Desktop\BUPT\SFC\SFCCode\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955E98C2-92F8-4A6E-AC46-6D6874FD1B34}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="8585" yWindow="1675" windowWidth="9245" windowHeight="9850" firstSheet="2" activeTab="4" xr2:uid="{0C546FD5-5ED7-48C5-B1A2-C545672C5C30}"/>
+    <workbookView windowWidth="19200" windowHeight="8280" tabRatio="915"/>
   </bookViews>
   <sheets>
     <sheet name="String.xml" sheetId="1" r:id="rId1"/>
     <sheet name="activity_main.xml" sheetId="3" r:id="rId2"/>
     <sheet name="activity_mainpage.xml" sheetId="4" r:id="rId3"/>
-    <sheet name="fragment_function.xml" sheetId="5" r:id="rId4"/>
-    <sheet name="fragment_memberarea.xml" sheetId="6" r:id="rId5"/>
+    <sheet name="activity_register.xml" sheetId="7" r:id="rId4"/>
+    <sheet name="fragment_function.xml" sheetId="5" r:id="rId5"/>
+    <sheet name="fragment_memberarea.xml" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="100">
   <si>
     <t>ID</t>
   </si>
@@ -46,142 +36,181 @@
     <t>欢迎使用</t>
   </si>
   <si>
+    <t>字体：http://www.xiazaiziti.com/4678.html</t>
+  </si>
+  <si>
     <t>projectname</t>
   </si>
   <si>
     <t>天线小车</t>
   </si>
   <si>
-    <t>字体：http://www.xiazaiziti.com/4678.html</t>
-  </si>
-  <si>
     <t>loginbutton</t>
   </si>
   <si>
     <t>登陆按钮</t>
   </si>
   <si>
+    <t>存于drawable</t>
+  </si>
+  <si>
     <t>registerbutton</t>
   </si>
   <si>
     <t>注册按钮</t>
   </si>
   <si>
+    <t>mainbackgroundimage</t>
+  </si>
+  <si>
+    <t>存于mipmap-hdpi</t>
+  </si>
+  <si>
     <t>背景</t>
   </si>
   <si>
-    <t>mainbackgroundimage</t>
-  </si>
-  <si>
-    <t>存于mipmap-hdpi</t>
+    <t>container</t>
+  </si>
+  <si>
+    <t>全页面框架</t>
+  </si>
+  <si>
+    <t>nav_view</t>
+  </si>
+  <si>
+    <t>选项框架</t>
+  </si>
+  <si>
+    <t>nav_host_fragment</t>
+  </si>
+  <si>
+    <t>除最上框架</t>
+  </si>
+  <si>
+    <t>bottom_nav_menu</t>
+  </si>
+  <si>
+    <t>存于menu</t>
+  </si>
+  <si>
+    <t>选项名字以及图标</t>
+  </si>
+  <si>
+    <t>navigation_function</t>
+  </si>
+  <si>
+    <t>存于bottom_nav_menu</t>
+  </si>
+  <si>
+    <t>小车使用选项名字</t>
+  </si>
+  <si>
+    <t>ic_home_black_24dp</t>
+  </si>
+  <si>
+    <t>小车选项选项图标</t>
+  </si>
+  <si>
+    <t>navigation_memberarea</t>
+  </si>
+  <si>
+    <t>用户专区选项名字</t>
+  </si>
+  <si>
+    <t>ic_dashboard_black_24dp</t>
+  </si>
+  <si>
+    <t>用户专区选项图标</t>
+  </si>
+  <si>
+    <t>mobile_navigation</t>
+  </si>
+  <si>
+    <t>存于navigation</t>
+  </si>
+  <si>
+    <t>选项的分别页面内容</t>
+  </si>
+  <si>
+    <t>存于mobile_navigation</t>
+  </si>
+  <si>
+    <t>对接 指打开小车使用选项页面</t>
+  </si>
+  <si>
+    <t>对接 指打开用户专区选项页面</t>
   </si>
   <si>
     <t>fragment_function</t>
   </si>
   <si>
+    <t>小车使用页面</t>
+  </si>
+  <si>
     <t>fragment_memberarea</t>
   </si>
   <si>
-    <t>container</t>
-  </si>
-  <si>
-    <t>nav_view</t>
-  </si>
-  <si>
-    <t>nav_host_fragment</t>
+    <t>用户专区页面</t>
+  </si>
+  <si>
+    <t>MemberareaFragment</t>
+  </si>
+  <si>
+    <t>存于ui.memberarea</t>
+  </si>
+  <si>
+    <t>用户专区Java</t>
+  </si>
+  <si>
+    <t>FunctionFragment</t>
+  </si>
+  <si>
+    <t>存于ui.function</t>
+  </si>
+  <si>
+    <t>小车使用Java</t>
   </si>
   <si>
     <t>此页非LinearLayout 勿改</t>
   </si>
   <si>
-    <t>选项框架</t>
-  </si>
-  <si>
-    <t>全页面框架</t>
-  </si>
-  <si>
-    <t>除最上框架</t>
-  </si>
-  <si>
-    <t>bottom_nav_menu</t>
-  </si>
-  <si>
-    <t>存于menu</t>
-  </si>
-  <si>
-    <t>选项名字以及图标</t>
-  </si>
-  <si>
-    <t>mobile_navigation</t>
-  </si>
-  <si>
-    <t>存于navigation</t>
-  </si>
-  <si>
-    <t>选项的分别页面内容</t>
-  </si>
-  <si>
-    <t>navigation_function</t>
-  </si>
-  <si>
-    <t>存于bottom_nav_menu</t>
-  </si>
-  <si>
-    <t>ic_home_black_24dp</t>
-  </si>
-  <si>
-    <t>存于drawable</t>
-  </si>
-  <si>
-    <t>小车使用选项名字</t>
-  </si>
-  <si>
-    <t>小车选项选项图标</t>
-  </si>
-  <si>
-    <t>navigation_memberarea</t>
-  </si>
-  <si>
-    <t>用户专区选项名字</t>
-  </si>
-  <si>
-    <t>用户专区选项图标</t>
-  </si>
-  <si>
-    <t>ic_dashboard_black_24dp</t>
-  </si>
-  <si>
-    <t>存于mobile_navigation</t>
-  </si>
-  <si>
-    <t>对接 指打开小车使用选项页面</t>
-  </si>
-  <si>
-    <t>对接 指打开用户专区选项页面</t>
-  </si>
-  <si>
-    <t>小车使用页面</t>
-  </si>
-  <si>
-    <t>用户专区页面</t>
-  </si>
-  <si>
-    <t>MemberareaFragment</t>
-  </si>
-  <si>
-    <t>FunctionFragment</t>
-  </si>
-  <si>
-    <t>存于ui.memberarea</t>
-  </si>
-  <si>
-    <t>存于ui.function</t>
-  </si>
-  <si>
-    <t>小车使用Java</t>
-  </si>
-  <si>
-    <t>用户专区Java</t>
+    <t>register</t>
+  </si>
+  <si>
+    <t>注册</t>
+  </si>
+  <si>
+    <t>大标题</t>
+  </si>
+  <si>
+    <t>register1</t>
+  </si>
+  <si>
+    <t>用户名称</t>
+  </si>
+  <si>
+    <t>小标题1</t>
+  </si>
+  <si>
+    <t>registercount</t>
+  </si>
+  <si>
+    <t>用户名输入框</t>
+  </si>
+  <si>
+    <t>register2</t>
+  </si>
+  <si>
+    <t>密码</t>
+  </si>
+  <si>
+    <t>小标题2</t>
+  </si>
+  <si>
+    <t>registerpassword</t>
+  </si>
+  <si>
+    <t>密码输入框</t>
   </si>
   <si>
     <t>functionpagetitle</t>
@@ -193,24 +222,24 @@
     <t>scancodeuse</t>
   </si>
   <si>
+    <t>扫码使用小车</t>
+  </si>
+  <si>
     <t>scancodewin</t>
   </si>
   <si>
-    <t>扫码使用小车</t>
-  </si>
-  <si>
     <t>扫码赚取优惠</t>
   </si>
   <si>
     <t>scancodeusebutton</t>
   </si>
   <si>
+    <t>扫码使用小车按钮</t>
+  </si>
+  <si>
     <t>scancodewinbutton</t>
   </si>
   <si>
-    <t>扫码使用小车按钮</t>
-  </si>
-  <si>
     <t>扫码赚取优惠按钮</t>
   </si>
   <si>
@@ -235,73 +264,78 @@
     <t>creditstore</t>
   </si>
   <si>
+    <t>积分商城</t>
+  </si>
+  <si>
+    <t>creditstorebuttonstyle</t>
+  </si>
+  <si>
     <t>积分商城按钮</t>
   </si>
   <si>
-    <t>creditstorebuttonstyle</t>
-  </si>
-  <si>
-    <t>积分商城</t>
-  </si>
-  <si>
     <t>coupon</t>
   </si>
   <si>
+    <t>优惠券</t>
+  </si>
+  <si>
     <t>couponbuttonstyle</t>
   </si>
   <si>
-    <t>优惠券</t>
-  </si>
-  <si>
     <t>优惠券按钮</t>
   </si>
   <si>
+    <t>history</t>
+  </si>
+  <si>
+    <t>消费记录</t>
+  </si>
+  <si>
     <t>historybuttonstyle</t>
   </si>
   <si>
-    <t>history</t>
+    <t>消费记录按钮</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>反馈记录</t>
   </si>
   <si>
     <t>problembuttonstyle</t>
   </si>
   <si>
-    <t>problem</t>
+    <t>反馈记录按钮</t>
+  </si>
+  <si>
+    <t>customerservice</t>
+  </si>
+  <si>
+    <t>客服中心</t>
   </si>
   <si>
     <t>customerservicebuttonstyle</t>
   </si>
   <si>
-    <t>customerservice</t>
-  </si>
-  <si>
-    <t>消费记录</t>
-  </si>
-  <si>
-    <t>反馈记录</t>
-  </si>
-  <si>
-    <t>客服中心</t>
-  </si>
-  <si>
     <t>客服中心按钮</t>
-  </si>
-  <si>
-    <t>反馈记录按钮</t>
-  </si>
-  <si>
-    <t>消费记录按钮</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -309,18 +343,355 @@
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="仿宋"/>
-      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -328,32 +699,318 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -364,32 +1021,26 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1108076</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>202030</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>11530</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="圖片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4E773D4-861E-46B9-A14C-12B8C32FC924}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="圖片 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2809876" y="425450"/>
-          <a:ext cx="1060450" cy="182980"/>
+          <a:off x="3400425" y="400050"/>
+          <a:ext cx="1060450" cy="182880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -444,7 +1095,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -477,26 +1128,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -529,23 +1163,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -687,24 +1304,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3FA540C-417E-4AFA-A0AB-533EBCDA6E9F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="3" width="20.625" customWidth="1"/>
@@ -723,18 +1335,20 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F8402D-8370-4564-834E-49F96AF0C5A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView zoomScale="98" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="2" width="20.625" customWidth="1"/>
     <col min="3" max="3" width="40.625" customWidth="1"/>
@@ -759,18 +1373,18 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -781,18 +1395,18 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
         <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -803,23 +1417,25 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08703E9E-A116-4A08-AB0A-66A90ADF5CFC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="2" width="20.625" customWidth="1"/>
     <col min="3" max="3" width="40.6640625" customWidth="1"/>
@@ -836,162 +1452,162 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
       <c r="B3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
         <v>31</v>
-      </c>
-      <c r="C11" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
         <v>33</v>
-      </c>
-      <c r="C12" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" t="s">
         <v>45</v>
       </c>
-      <c r="B19" t="s">
-        <v>47</v>
-      </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s">
         <v>48</v>
@@ -1000,27 +1616,111 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7931463-D1E3-4D93-B071-0685D7402DAE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="16.1171875" customWidth="1"/>
+    <col min="2" max="2" width="14.484375" customWidth="1"/>
+    <col min="3" max="3" width="41.4921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="3" width="20.625" customWidth="1"/>
   </cols>
@@ -1036,78 +1736,80 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA8B3B4F-83B6-455E-B785-B23C0EFA9913}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="3" width="20.625" customWidth="1"/>
   </cols>
@@ -1123,119 +1825,120 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="B11" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>